--- a/Sura/bin/Debug/DataSource - Emision Motor - Inspeccion.xlsx
+++ b/Sura/bin/Debug/DataSource - Emision Motor - Inspeccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4F8ABA-5721-4C26-9A2B-EAA306F6589D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D65AB05-4CAD-4946-BB01-A3B8AA84CD28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
